--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Square" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>shape</t>
   </si>
@@ -143,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -203,11 +203,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -236,6 +251,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,81 +532,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A6:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="12">
         <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="12">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <v>-1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="12">
         <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="12">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="12">
         <v>-1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1359,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
